--- a/biology/Médecine/1378_en_santé_et_médecine/1378_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1378_en_santé_et_médecine/1378_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1378_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1378_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1378 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1378_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1378_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'émir ottoman Soudoun Sheikhouni promulgue une des premières lois interdisant l'usage du haschich[1].
-Une magistrature de commissaires à la santé publique est instituée à Florence, dans le but de « conserver la santé, la préserver de la peste et éviter toute contagion[2] ».
-Fondation de l'hôpital Saint-Jacques à Pontoise dans le Vexin français, à l'emplacement de l'actuelle rue Pierre-Butin[3],[4].
-Fondation de l'hôpital Saint-Thomas de Douai en Flandre par Gauthier Belamy, dit Lentailleur[5].
-Une maladrerie consacrée à sainte Madeleine et sainte Véronique est attestée à Saint-Romain en Normandie[6].
-Une sage-femme est mentionnée au service de l'Hôtel-Dieu de Paris[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'émir ottoman Soudoun Sheikhouni promulgue une des premières lois interdisant l'usage du haschich.
+Une magistrature de commissaires à la santé publique est instituée à Florence, dans le but de « conserver la santé, la préserver de la peste et éviter toute contagion ».
+Fondation de l'hôpital Saint-Jacques à Pontoise dans le Vexin français, à l'emplacement de l'actuelle rue Pierre-Butin,.
+Fondation de l'hôpital Saint-Thomas de Douai en Flandre par Gauthier Belamy, dit Lentailleur.
+Une maladrerie consacrée à sainte Madeleine et sainte Véronique est attestée à Saint-Romain en Normandie.
+Une sage-femme est mentionnée au service de l'Hôtel-Dieu de Paris.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1378_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1378_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1378-1379 : Roch de Montpellier (né vers 1350), médecin et thaumaturge français, canonisé par l'Église catholique, patron des chirurgiens, dermatologues et apothicaires, invoqué contre de nombreuses maladies[8],[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1378-1379 : Roch de Montpellier (né vers 1350), médecin et thaumaturge français, canonisé par l'Église catholique, patron des chirurgiens, dermatologues et apothicaires, invoqué contre de nombreuses maladies,.
 </t>
         </is>
       </c>
